--- a/adsphd-master/chapters/fertility/image/Figures original.xlsx
+++ b/adsphd-master/chapters/fertility/image/Figures original.xlsx
@@ -4,22 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Fig1" sheetId="4" r:id="rId1"/>
-    <sheet name="Fig2" sheetId="5" r:id="rId2"/>
-    <sheet name="Fig 3" sheetId="1" r:id="rId3"/>
-    <sheet name="Fig 4-8" sheetId="2" r:id="rId4"/>
+    <sheet name="Fig1-2" sheetId="5" r:id="rId1"/>
+    <sheet name="Fig 3" sheetId="1" r:id="rId2"/>
+    <sheet name="Fig 4-8" sheetId="2" r:id="rId3"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
-    <externalReference r:id="rId11"/>
   </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
@@ -114,7 +113,7 @@
           <c:x val="0.18312361111111111"/>
           <c:y val="5.5953174603174602E-2"/>
           <c:w val="0.75731215277777753"/>
-          <c:h val="0.74620555555555779"/>
+          <c:h val="0.74620555555555812"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -649,8 +648,8 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="278620032"/>
-        <c:axId val="278626304"/>
+        <c:axId val="259334912"/>
+        <c:axId val="259336832"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1103,11 +1102,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="278620032"/>
-        <c:axId val="278626304"/>
+        <c:axId val="259334912"/>
+        <c:axId val="259336832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="278620032"/>
+        <c:axId val="259334912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1137,6 +1136,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
@@ -1158,14 +1158,14 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278626304"/>
+        <c:crossAx val="259336832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
         <c:minorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="278626304"/>
+        <c:axId val="259336832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1202,6 +1202,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -1222,7 +1223,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278620032"/>
+        <c:crossAx val="259334912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -1260,7 +1261,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1279,10 +1280,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15444563492063582"/>
+          <c:x val="0.15444563492063595"/>
           <c:y val="3.5880555555555596E-2"/>
-          <c:w val="0.80254087301587562"/>
-          <c:h val="0.78622129629629811"/>
+          <c:w val="0.80254087301587596"/>
+          <c:h val="0.78622129629629844"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1752,11 +1753,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="279745280"/>
-        <c:axId val="279747200"/>
+        <c:axId val="262995328"/>
+        <c:axId val="263034368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="279745280"/>
+        <c:axId val="262995328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3"/>
@@ -1798,13 +1799,13 @@
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="279747200"/>
+        <c:crossAx val="263034368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="279747200"/>
+        <c:axId val="263034368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3"/>
@@ -1838,7 +1839,7 @@
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="279745280"/>
+        <c:crossAx val="262995328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -1854,7 +1855,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000711" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000711" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000744" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000744" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1872,10 +1873,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13694315607809532"/>
+          <c:x val="0.13694315607809546"/>
           <c:y val="3.8822685185185196E-2"/>
           <c:w val="0.82878055555555563"/>
-          <c:h val="0.78214166666666662"/>
+          <c:h val="0.76156309531718469"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2455,8 +2456,8 @@
             </c:numLit>
           </c:yVal>
         </c:ser>
-        <c:axId val="279773568"/>
-        <c:axId val="279775488"/>
+        <c:axId val="263109632"/>
+        <c:axId val="263120000"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -3751,11 +3752,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="279773568"/>
-        <c:axId val="279775488"/>
+        <c:axId val="263109632"/>
+        <c:axId val="263120000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="279773568"/>
+        <c:axId val="263109632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3786,12 +3787,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="279775488"/>
+        <c:crossAx val="263120000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="279775488"/>
+        <c:axId val="263120000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35"/>
@@ -3813,7 +3814,16 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="nl-NL" baseline="0"/>
-                  <a:t> rootzone (vol%)</a:t>
+                  <a:t> </a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL" baseline="0"/>
+                  <a:t>root zone (vol%)</a:t>
                 </a:r>
                 <a:endParaRPr lang="nl-NL"/>
               </a:p>
@@ -3824,7 +3834,7 @@
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="279773568"/>
+        <c:crossAx val="263109632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -3841,7 +3851,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000711" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000711" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000744" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000744" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3859,9 +3869,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.19529621607375192"/>
-          <c:y val="7.8334444444444734E-2"/>
-          <c:w val="0.75138541666666891"/>
-          <c:h val="0.72229888888889182"/>
+          <c:y val="7.8334444444444776E-2"/>
+          <c:w val="0.75138541666666925"/>
+          <c:h val="0.72229888888889215"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3976,8 +3986,8 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="278649856"/>
-        <c:axId val="278649088"/>
+        <c:axId val="259384448"/>
+        <c:axId val="259386752"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -4159,11 +4169,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="278649856"/>
-        <c:axId val="278649088"/>
+        <c:axId val="259384448"/>
+        <c:axId val="259386752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="278649856"/>
+        <c:axId val="259384448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -4186,6 +4196,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
@@ -4200,14 +4211,14 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278649088"/>
+        <c:crossAx val="259386752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
         <c:minorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="278649088"/>
+        <c:axId val="259386752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4229,6 +4240,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
@@ -4242,7 +4254,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278649856"/>
+        <c:crossAx val="259384448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -4277,7 +4289,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4293,9 +4305,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17115833353163623"/>
+          <c:x val="0.17115833353163631"/>
           <c:y val="4.3051285256009673E-2"/>
-          <c:w val="0.76885833333333409"/>
+          <c:w val="0.76885833333333475"/>
           <c:h val="0.74741268452554543"/>
         </c:manualLayout>
       </c:layout>
@@ -7197,11 +7209,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="277164800"/>
-        <c:axId val="277166720"/>
+        <c:axId val="259587456"/>
+        <c:axId val="261182976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="277164800"/>
+        <c:axId val="259587456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="125"/>
@@ -7263,14 +7275,14 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277166720"/>
+        <c:crossAx val="261182976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="25"/>
         <c:minorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="277166720"/>
+        <c:axId val="261182976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -7330,7 +7342,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277164800"/>
+        <c:crossAx val="259587456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7368,7 +7380,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7386,7 +7398,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.19778680555555556"/>
           <c:y val="4.3056666666666674E-2"/>
-          <c:w val="0.74222986111111156"/>
+          <c:w val="0.742229861111112"/>
           <c:h val="0.75052111111111164"/>
         </c:manualLayout>
       </c:layout>
@@ -8674,8 +8686,8 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="279260544"/>
-        <c:axId val="279275008"/>
+        <c:axId val="262019328"/>
+        <c:axId val="262025600"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -10217,11 +10229,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="279260544"/>
-        <c:axId val="279275008"/>
+        <c:axId val="262019328"/>
+        <c:axId val="262025600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="279260544"/>
+        <c:axId val="262019328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="125"/>
@@ -10273,14 +10285,14 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279275008"/>
+        <c:crossAx val="262025600"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="25"/>
         <c:minorUnit val="2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="279275008"/>
+        <c:axId val="262025600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -10360,7 +10372,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279260544"/>
+        <c:crossAx val="262019328"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -10400,7 +10412,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10420,7 +10432,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.16867638888888889"/>
           <c:y val="4.3056666666666674E-2"/>
-          <c:w val="0.7627711805555577"/>
+          <c:w val="0.76277118055555804"/>
           <c:h val="0.73863222222222225"/>
         </c:manualLayout>
       </c:layout>
@@ -11675,8 +11687,8 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="279552000"/>
-        <c:axId val="279553920"/>
+        <c:axId val="262163456"/>
+        <c:axId val="262190208"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -12030,11 +12042,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="279552000"/>
-        <c:axId val="279553920"/>
+        <c:axId val="262163456"/>
+        <c:axId val="262190208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="279552000"/>
+        <c:axId val="262163456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -12065,13 +12077,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="279553920"/>
+        <c:crossAx val="262190208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="279553920"/>
+        <c:axId val="262190208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -12098,7 +12110,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="279552000"/>
+        <c:crossAx val="262163456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -12114,7 +12126,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000577" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000577" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000611" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000611" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -12131,7 +12143,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.1978145833333334"/>
-          <c:y val="8.362166666666726E-2"/>
+          <c:y val="8.3621666666667357E-2"/>
           <c:w val="0.7422020833333336"/>
           <c:h val="0.71845833333333364"/>
         </c:manualLayout>
@@ -12622,8 +12634,8 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="279621632"/>
-        <c:axId val="279623552"/>
+        <c:axId val="262233088"/>
+        <c:axId val="262255744"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -14483,11 +14495,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="279621632"/>
-        <c:axId val="279623552"/>
+        <c:axId val="262233088"/>
+        <c:axId val="262255744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="279621632"/>
+        <c:axId val="262233088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -14556,13 +14568,13 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279623552"/>
+        <c:crossAx val="262255744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="279623552"/>
+        <c:axId val="262255744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -14622,7 +14634,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279621632"/>
+        <c:crossAx val="262233088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -14661,7 +14673,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -14680,7 +14692,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1464071428571441"/>
+          <c:x val="0.14640714285714432"/>
           <c:y val="3.58805721669316E-2"/>
           <c:w val="0.81057936507936457"/>
           <c:h val="0.79210082967631001"/>
@@ -15175,11 +15187,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="279338368"/>
-        <c:axId val="279352832"/>
+        <c:axId val="262547712"/>
+        <c:axId val="262574464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="279338368"/>
+        <c:axId val="262547712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -15214,13 +15226,13 @@
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="279352832"/>
+        <c:crossAx val="262574464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="279352832"/>
+        <c:axId val="262574464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -15256,7 +15268,7 @@
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="279338368"/>
+        <c:crossAx val="262547712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -15272,7 +15284,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000755" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000755" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000788" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000788" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -15294,7 +15306,7 @@
           <c:x val="0.14645089860404908"/>
           <c:y val="3.5880555555555596E-2"/>
           <c:w val="0.81034899171580088"/>
-          <c:h val="0.78622129629629811"/>
+          <c:h val="0.78622129629629844"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -15651,11 +15663,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="279433600"/>
-        <c:axId val="279435520"/>
+        <c:axId val="262634496"/>
+        <c:axId val="262648960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="279433600"/>
+        <c:axId val="262634496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -15693,13 +15705,13 @@
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="279435520"/>
+        <c:crossAx val="262648960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="279435520"/>
+        <c:axId val="262648960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -15733,7 +15745,7 @@
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="279433600"/>
+        <c:crossAx val="262634496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -15749,7 +15761,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000711" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000711" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000744" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000744" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -15771,7 +15783,7 @@
           <c:x val="0.15648650793650792"/>
           <c:y val="3.5880555555555596E-2"/>
           <c:w val="0.80049999999999999"/>
-          <c:h val="0.78622129629629811"/>
+          <c:h val="0.78622129629629844"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -16128,11 +16140,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="279684224"/>
-        <c:axId val="279686144"/>
+        <c:axId val="262975488"/>
+        <c:axId val="262977408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="279684224"/>
+        <c:axId val="262975488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -16166,13 +16178,13 @@
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="279686144"/>
+        <c:crossAx val="262977408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="279686144"/>
+        <c:axId val="262977408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -16207,7 +16219,7 @@
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="279684224"/>
+        <c:crossAx val="262975488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -16223,7 +16235,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000733" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000733" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000766" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000766" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -16234,32 +16246,1395 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>391247</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>82673</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>118437</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 1"/>
+        <xdr:cNvPr id="38" name="Group 37"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="123825"/>
-          <a:ext cx="8982797" cy="3959348"/>
-          <a:chOff x="198438" y="773237"/>
-          <a:chExt cx="8982797" cy="3959348"/>
+          <a:off x="76201" y="1304925"/>
+          <a:ext cx="8981208" cy="3576012"/>
+          <a:chOff x="76201" y="1304925"/>
+          <a:chExt cx="9032854" cy="3576012"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="Arc 11"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="20309959">
+            <a:off x="76201" y="3306137"/>
+            <a:ext cx="6578225" cy="1574800"/>
+          </a:xfrm>
+          <a:prstGeom prst="arc">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 15401160"/>
+              <a:gd name="adj2" fmla="val 21014737"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="nl-NL"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="2" name="Straight Connector 1"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="1611916" y="1304925"/>
+            <a:ext cx="0" cy="2880000"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:headEnd type="arrow" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="3" name="Straight Connector 2"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="1611916" y="4197350"/>
+            <a:ext cx="6210300" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:headEnd type="arrow" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="TextBox 16"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7028465" y="4149725"/>
+            <a:ext cx="2080590" cy="461665"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="nl-NL"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:r>
+              <a:rPr lang="nl-NL" sz="2400" b="1"/>
+              <a:t>∑ Tr</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="TextBox 17"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="19708270">
+            <a:off x="2823278" y="2425977"/>
+            <a:ext cx="2271414" cy="338554"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="nl-NL"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:r>
+              <a:rPr lang="nl-NL" sz="1600" b="1"/>
+              <a:t>Non limiting soil fertility</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="TextBox 18"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5079016" y="2376428"/>
+            <a:ext cx="2932720" cy="307890"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="nl-NL"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:r>
+              <a:rPr lang="nl-NL" sz="1600" b="1"/>
+              <a:t>Soil fertility stress</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="TextBox 20"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6095016" y="1508125"/>
+            <a:ext cx="933450" cy="400110"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="nl-NL"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:r>
+              <a:rPr lang="nl-NL" sz="2000" b="1"/>
+              <a:t>wp*</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="TextBox 21"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4755166" y="2747963"/>
+            <a:ext cx="1028700" cy="400110"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="nl-NL"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:r>
+              <a:rPr lang="nl-NL" sz="2000" b="1"/>
+              <a:t>wp*</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="TextBox 23"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="626603" y="1304925"/>
+            <a:ext cx="887072" cy="461665"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="nl-NL"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="r"/>
+            <a:r>
+              <a:rPr lang="nl-NL" sz="2400" b="1"/>
+              <a:t>B</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="Arc 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="2965332">
+            <a:off x="4523247" y="1431081"/>
+            <a:ext cx="1390937" cy="1224063"/>
+          </a:xfrm>
+          <a:prstGeom prst="arc">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 16795971"/>
+              <a:gd name="adj2" fmla="val 18661797"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="nl-NL"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="Arc 10"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="3850275">
+            <a:off x="3013737" y="2526263"/>
+            <a:ext cx="1482610" cy="1189522"/>
+          </a:xfrm>
+          <a:prstGeom prst="arc">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 16686886"/>
+              <a:gd name="adj2" fmla="val 17789213"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="nl-NL"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="13" name="Straight Connector 12"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="1611916" y="1381125"/>
+            <a:ext cx="4699000" cy="2819400"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="14" name="Straight Connector 13"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5218716" y="2043113"/>
+            <a:ext cx="1236663" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="15" name="Straight Connector 14"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3755042" y="3121025"/>
+            <a:ext cx="1762124" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>120773</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="43" name="Group 42"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="623454" y="4962525"/>
+          <a:ext cx="8468591" cy="3921248"/>
+          <a:chOff x="623454" y="4962525"/>
+          <a:chExt cx="8468591" cy="3921248"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="Picture 2"/>
+          <xdr:cNvPr id="17" name="Picture 16"/>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -16273,8 +17648,8 @@
         </xdr:blipFill>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="1187707" y="1406918"/>
-            <a:ext cx="5817870" cy="2975697"/>
+            <a:off x="1703435" y="5586681"/>
+            <a:ext cx="5784814" cy="2975697"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -16290,15 +17665,15 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Text Box 33"/>
+          <xdr:cNvPr id="18" name="Text Box 33"/>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="6888991" y="4363253"/>
-            <a:ext cx="786571" cy="369332"/>
+            <a:off x="7230262" y="8514441"/>
+            <a:ext cx="782102" cy="369332"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -16425,15 +17800,15 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="Text Box 34"/>
+          <xdr:cNvPr id="19" name="Text Box 34"/>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="6302551" y="934586"/>
-            <a:ext cx="2878684" cy="339985"/>
+            <a:off x="6789217" y="5114349"/>
+            <a:ext cx="2293357" cy="339985"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -16448,7 +17823,7 @@
         </xdr:spPr>
         <xdr:txBody>
           <a:bodyPr wrap="square">
-            <a:spAutoFit/>
+            <a:noAutofit/>
           </a:bodyPr>
           <a:lstStyle>
             <a:defPPr>
@@ -16560,15 +17935,15 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Text Box 35"/>
+          <xdr:cNvPr id="20" name="Text Box 35"/>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="6639987" y="2133178"/>
-            <a:ext cx="2217773" cy="339985"/>
+            <a:off x="7124736" y="6312941"/>
+            <a:ext cx="1967309" cy="339985"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -16583,7 +17958,7 @@
         </xdr:spPr>
         <xdr:txBody>
           <a:bodyPr wrap="square">
-            <a:spAutoFit/>
+            <a:noAutofit/>
           </a:bodyPr>
           <a:lstStyle>
             <a:defPPr>
@@ -16695,14 +18070,14 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="Line 39"/>
+          <xdr:cNvPr id="21" name="Line 39"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm flipV="1">
-            <a:off x="959416" y="810693"/>
+            <a:off x="1599562" y="4990456"/>
             <a:ext cx="0" cy="3558321"/>
           </a:xfrm>
           <a:prstGeom prst="line">
@@ -16822,15 +18197,15 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="Text Box 40"/>
+          <xdr:cNvPr id="22" name="Text Box 40"/>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="198438" y="773237"/>
-            <a:ext cx="1238043" cy="829795"/>
+            <a:off x="623454" y="4962525"/>
+            <a:ext cx="883228" cy="829795"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -16845,7 +18220,7 @@
         </xdr:spPr>
         <xdr:txBody>
           <a:bodyPr wrap="square">
-            <a:spAutoFit/>
+            <a:noAutofit/>
           </a:bodyPr>
           <a:lstStyle>
             <a:defPPr>
@@ -16943,7 +18318,7 @@
             </a:lvl9pPr>
           </a:lstStyle>
           <a:p>
-            <a:pPr>
+            <a:pPr algn="r">
               <a:spcBef>
                 <a:spcPct val="50000"/>
               </a:spcBef>
@@ -16957,15 +18332,15 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Line 42"/>
+          <xdr:cNvPr id="23" name="Line 42"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm flipV="1">
-            <a:off x="6302551" y="1225590"/>
-            <a:ext cx="928533" cy="651158"/>
+            <a:off x="6789217" y="5405353"/>
+            <a:ext cx="923257" cy="651158"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
@@ -17084,15 +18459,15 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="Line 43"/>
+          <xdr:cNvPr id="24" name="Line 43"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm flipV="1">
-            <a:off x="6344439" y="2452995"/>
-            <a:ext cx="1163575" cy="821151"/>
+            <a:off x="6830867" y="6632758"/>
+            <a:ext cx="1156964" cy="821151"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
@@ -17211,15 +18586,15 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="Line 50"/>
+          <xdr:cNvPr id="25" name="Line 50"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm flipV="1">
-            <a:off x="3472737" y="2643156"/>
-            <a:ext cx="1554536" cy="0"/>
+            <a:off x="3975482" y="6822919"/>
+            <a:ext cx="1545703" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
@@ -17339,15 +18714,15 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="Line 51"/>
+          <xdr:cNvPr id="26" name="Line 51"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm flipH="1" flipV="1">
-            <a:off x="4217425" y="1384058"/>
-            <a:ext cx="9309" cy="1224523"/>
+            <a:off x="4715938" y="5563821"/>
+            <a:ext cx="9256" cy="1224523"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
@@ -17466,15 +18841,15 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="Freeform 12"/>
+          <xdr:cNvPr id="27" name="Freeform 26"/>
           <xdr:cNvSpPr>
             <a:spLocks/>
           </xdr:cNvSpPr>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="1357358" y="2671969"/>
-            <a:ext cx="5568868" cy="1697045"/>
+            <a:off x="1872122" y="6851732"/>
+            <a:ext cx="5537227" cy="1697045"/>
           </a:xfrm>
           <a:custGeom>
             <a:avLst/>
@@ -17862,15 +19237,15 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="Text Box 59"/>
+          <xdr:cNvPr id="28" name="Text Box 59"/>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="4254659" y="1758618"/>
-            <a:ext cx="581787" cy="720308"/>
+            <a:off x="4752961" y="5938381"/>
+            <a:ext cx="578481" cy="720308"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -17885,7 +19260,7 @@
         </xdr:spPr>
         <xdr:txBody>
           <a:bodyPr wrap="square">
-            <a:spAutoFit/>
+            <a:noAutofit/>
           </a:bodyPr>
           <a:lstStyle>
             <a:defPPr>
@@ -17997,15 +19372,15 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="Text Box 61"/>
+          <xdr:cNvPr id="29" name="Text Box 61"/>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="5664912" y="2496214"/>
-            <a:ext cx="579460" cy="720308"/>
+            <a:off x="6155201" y="6675977"/>
+            <a:ext cx="576168" cy="720308"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -18020,7 +19395,7 @@
         </xdr:spPr>
         <xdr:txBody>
           <a:bodyPr wrap="square">
-            <a:spAutoFit/>
+            <a:noAutofit/>
           </a:bodyPr>
           <a:lstStyle>
             <a:defPPr>
@@ -18132,15 +19507,15 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="Text Box 62"/>
+          <xdr:cNvPr id="30" name="Text Box 62"/>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="3575132" y="3429733"/>
-            <a:ext cx="581787" cy="720308"/>
+            <a:off x="4077295" y="7609496"/>
+            <a:ext cx="578481" cy="720308"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -18155,7 +19530,7 @@
         </xdr:spPr>
         <xdr:txBody>
           <a:bodyPr wrap="square">
-            <a:spAutoFit/>
+            <a:noAutofit/>
           </a:bodyPr>
           <a:lstStyle>
             <a:defPPr>
@@ -18267,14 +19642,14 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="Line 44"/>
+          <xdr:cNvPr id="31" name="Line 44"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="4233715" y="2588413"/>
+            <a:off x="4732136" y="6768176"/>
             <a:ext cx="0" cy="1769076"/>
           </a:xfrm>
           <a:prstGeom prst="line">
@@ -18395,14 +19770,14 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="Line 45"/>
+          <xdr:cNvPr id="32" name="Line 45"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="3230714" y="1415752"/>
+            <a:off x="3734834" y="5595515"/>
             <a:ext cx="0" cy="2941738"/>
           </a:xfrm>
           <a:prstGeom prst="line">
@@ -18523,15 +19898,15 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="19" name="Line 47"/>
+          <xdr:cNvPr id="33" name="Line 47"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm flipV="1">
-            <a:off x="3251658" y="3429733"/>
-            <a:ext cx="1019291" cy="0"/>
+            <a:off x="3755659" y="7609496"/>
+            <a:ext cx="1013500" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
@@ -18650,15 +20025,15 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="Line 41"/>
+          <xdr:cNvPr id="34" name="Line 41"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm flipV="1">
-            <a:off x="959416" y="4354608"/>
-            <a:ext cx="6644011" cy="14406"/>
+            <a:off x="1599562" y="8553421"/>
+            <a:ext cx="6174716" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
@@ -18785,1554 +20160,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>392716</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>405416</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="Straight Connector 1"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1611916" y="1304925"/>
-          <a:ext cx="12700" cy="2895600"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="arrow" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>392716</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>507016</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Connector 2"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1611916" y="4149725"/>
-          <a:ext cx="6210300" cy="50800"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="arrow" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>322866</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>81566</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>39390</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 16"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7028466" y="4149725"/>
-          <a:ext cx="1587500" cy="461665"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="nl-NL"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:r>
-            <a:rPr lang="nl-NL" sz="2400" b="1"/>
-            <a:t>∑ Tr</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>224442</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>143163</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>402242</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>100717</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 17"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="19708270">
-          <a:off x="2662842" y="1857663"/>
-          <a:ext cx="4445000" cy="338554"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="nl-NL"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:r>
-            <a:rPr lang="nl-NL" sz="1600" b="1"/>
-            <a:t>Non limiting soil fertility</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>202216</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>90428</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>380016</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>47982</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 18"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5079016" y="2376428"/>
-          <a:ext cx="4445000" cy="338554"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="nl-NL"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:r>
-            <a:rPr lang="nl-NL" sz="1600" b="1"/>
-            <a:t>Soil fertility stress</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>608616</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>322866</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>3235</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 20"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6095016" y="1508125"/>
-          <a:ext cx="933450" cy="400110"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="nl-NL"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:r>
-            <a:rPr lang="nl-NL" sz="2000" b="1"/>
-            <a:t>WP*</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>487966</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>80963</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>297466</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>100073</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextBox 21"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4755166" y="2747963"/>
-          <a:ext cx="1028700" cy="400110"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="nl-NL"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:r>
-            <a:rPr lang="nl-NL" sz="2000" b="1"/>
-            <a:t>WP*</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>31994</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>400294</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>52090</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="TextBox 23"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1251194" y="1304925"/>
-          <a:ext cx="1587500" cy="461665"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="nl-NL"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:r>
-            <a:rPr lang="nl-NL" sz="2400" b="1"/>
-            <a:t>B</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>339484</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>14144</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>344347</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>71581</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Arc 9"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="2965332">
-          <a:off x="4523247" y="1431081"/>
-          <a:ext cx="1390937" cy="1224063"/>
-        </a:xfrm>
-        <a:prstGeom prst="arc">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 16795971"/>
-            <a:gd name="adj2" fmla="val 18661797"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="nl-NL"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="nl-NL"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>112281</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>93719</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>82603</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>52329</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Arc 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="3850275">
-          <a:off x="3013737" y="2526263"/>
-          <a:ext cx="1482610" cy="1189522"/>
-        </a:xfrm>
-        <a:prstGeom prst="arc">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 16686886"/>
-            <a:gd name="adj2" fmla="val 17789213"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="nl-NL"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="nl-NL"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>67637</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>558426</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>118437</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Arc 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="20309959">
-          <a:off x="76201" y="3306137"/>
-          <a:ext cx="6578225" cy="1574800"/>
-        </a:xfrm>
-        <a:prstGeom prst="arc">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 15401160"/>
-            <a:gd name="adj2" fmla="val 21014737"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="nl-NL"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="nl-NL"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>392716</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>214916</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Straight Connector 12"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1611916" y="1381125"/>
-          <a:ext cx="4699000" cy="2819400"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>341916</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>138113</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>359379</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>138113</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Straight Connector 13"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5218716" y="2043113"/>
-          <a:ext cx="1236663" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>97442</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>30766</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Straight Connector 14"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3755042" y="3121025"/>
-          <a:ext cx="1762124" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>163401</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -20351,8 +20178,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4413932" y="560661"/>
-          <a:ext cx="2887328" cy="3619809"/>
+          <a:off x="4399225" y="560661"/>
+          <a:ext cx="2876822" cy="3619809"/>
           <a:chOff x="4413932" y="3037161"/>
           <a:chExt cx="2887328" cy="3619809"/>
         </a:xfrm>
@@ -20412,7 +20239,7 @@
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr lang="nl-NL" sz="1100" b="1"/>
+              <a:rPr lang="nl-NL" sz="1100" b="0"/>
               <a:t>(b)</a:t>
             </a:r>
           </a:p>
@@ -20471,7 +20298,7 @@
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr lang="nl-NL" sz="1100" b="1"/>
+              <a:rPr lang="nl-NL" sz="1100" b="0"/>
               <a:t>(a)</a:t>
             </a:r>
           </a:p>
@@ -20483,7 +20310,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
@@ -20734,20 +20561,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>163200</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>64500</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>52801</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85501</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="11" name="Chart 10"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -32082,369 +31911,730 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N22"/>
+  <dimension ref="B4:AH47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="13" max="13" width="9.140625" customWidth="1"/>
-    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+    <row r="4" spans="2:34">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+    <row r="5" spans="2:34">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+    <row r="6" spans="2:34">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+    <row r="7" spans="2:34">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="AH7">
+        <v>25.24</v>
+      </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
+    <row r="8" spans="2:34">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="AH8">
+        <v>23.66</v>
+      </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+    <row r="9" spans="2:34">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="AH9">
+        <f>AH7-AH8</f>
+        <v>1.5799999999999983</v>
+      </c>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+    <row r="10" spans="2:34">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
     </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+    <row r="11" spans="2:34">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
     </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
+    <row r="12" spans="2:34">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
     </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+    <row r="13" spans="2:34">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
     </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
+    <row r="14" spans="2:34">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
     </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
+    <row r="15" spans="2:34">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
     </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
+    <row r="16" spans="2:34">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
     </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
+    <row r="17" spans="2:15">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
     </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
+    <row r="18" spans="2:15">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
     </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
+    <row r="19" spans="2:15">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
     </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
+    <row r="20" spans="2:15">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
     </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
+    <row r="21" spans="2:15">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
     </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
+    <row r="22" spans="2:15">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
     </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
+    <row r="23" spans="2:15">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
     </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
+    <row r="24" spans="2:15">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
     </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
+    <row r="25" spans="2:15">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="2:15">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="36" spans="2:15">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+    </row>
+    <row r="37" spans="2:15">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+    </row>
+    <row r="38" spans="2:15">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+    </row>
+    <row r="39" spans="2:15">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15">
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32454,260 +32644,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C7:M24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="7" spans="3:13">
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="3:13">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="3:13">
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="3:13">
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="3:13">
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="3:13">
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="3:13">
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="3:13">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="3:13">
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="3:13">
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13">
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13">
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13">
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13">
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13">
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13">
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13">
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32905,12 +32845,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C1:AB50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27:N28"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33076,6 +33016,10 @@
       <c r="AA13" s="1"/>
     </row>
     <row r="14" spans="3:27" s="2" customFormat="1">
+      <c r="J14" s="2">
+        <f>3307/12</f>
+        <v>275.58333333333331</v>
+      </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
